--- a/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H2">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J2">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.38591901855633</v>
+        <v>4.465868666666666</v>
       </c>
       <c r="N2">
-        <v>3.38591901855633</v>
+        <v>13.397606</v>
       </c>
       <c r="O2">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136183</v>
       </c>
       <c r="P2">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136182</v>
       </c>
       <c r="Q2">
-        <v>228.2739037238764</v>
+        <v>346.7174733483262</v>
       </c>
       <c r="R2">
-        <v>228.2739037238764</v>
+        <v>3120.457260134936</v>
       </c>
       <c r="S2">
-        <v>0.1104551410648404</v>
+        <v>0.1431668443711913</v>
       </c>
       <c r="T2">
-        <v>0.1104551410648404</v>
+        <v>0.1431668443711913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H3">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J3">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53802012058109</v>
+        <v>6.701621333333333</v>
       </c>
       <c r="N3">
-        <v>6.53802012058109</v>
+        <v>20.104864</v>
       </c>
       <c r="O3">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="P3">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="Q3">
-        <v>440.7841319804044</v>
+        <v>520.2950174898205</v>
       </c>
       <c r="R3">
-        <v>440.7841319804044</v>
+        <v>4682.655157408383</v>
       </c>
       <c r="S3">
-        <v>0.2132826954058279</v>
+        <v>0.2148406167036087</v>
       </c>
       <c r="T3">
-        <v>0.2132826954058279</v>
+        <v>0.2148406167036086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.4185952094054</v>
+        <v>77.63718533333333</v>
       </c>
       <c r="H4">
-        <v>67.4185952094054</v>
+        <v>232.911556</v>
       </c>
       <c r="I4">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="J4">
-        <v>0.4180110616735474</v>
+        <v>0.4513549673384918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.88987459594743</v>
+        <v>2.911831333333334</v>
       </c>
       <c r="N4">
-        <v>2.88987459594743</v>
+        <v>8.735494000000001</v>
       </c>
       <c r="O4">
-        <v>0.2255280633614028</v>
+        <v>0.2068161713476531</v>
       </c>
       <c r="P4">
-        <v>0.2255280633614028</v>
+        <v>0.206816171347653</v>
       </c>
       <c r="Q4">
-        <v>194.8312855901237</v>
+        <v>226.0663888854072</v>
       </c>
       <c r="R4">
-        <v>194.8312855901237</v>
+        <v>2034.597499968664</v>
       </c>
       <c r="S4">
-        <v>0.09427322520287906</v>
+        <v>0.09334750626369188</v>
       </c>
       <c r="T4">
-        <v>0.09427322520287906</v>
+        <v>0.09334750626369184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H5">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J5">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.38591901855633</v>
+        <v>4.465868666666666</v>
       </c>
       <c r="N5">
-        <v>3.38591901855633</v>
+        <v>13.397606</v>
       </c>
       <c r="O5">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136183</v>
       </c>
       <c r="P5">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136182</v>
       </c>
       <c r="Q5">
-        <v>210.7951930686891</v>
+        <v>278.7066403338284</v>
       </c>
       <c r="R5">
-        <v>210.7951930686891</v>
+        <v>2508.359763004456</v>
       </c>
       <c r="S5">
-        <v>0.1019976984068941</v>
+        <v>0.1150837591672345</v>
       </c>
       <c r="T5">
-        <v>0.1019976984068941</v>
+        <v>0.1150837591672345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H6">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J6">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53802012058109</v>
+        <v>6.701621333333333</v>
       </c>
       <c r="N6">
-        <v>6.53802012058109</v>
+        <v>20.104864</v>
       </c>
       <c r="O6">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="P6">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="Q6">
-        <v>407.0337199595776</v>
+        <v>418.2358474945849</v>
       </c>
       <c r="R6">
-        <v>407.0337199595776</v>
+        <v>3764.122627451264</v>
       </c>
       <c r="S6">
-        <v>0.1969518469823207</v>
+        <v>0.1726982661429216</v>
       </c>
       <c r="T6">
-        <v>0.1969518469823207</v>
+        <v>0.1726982661429215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.2564189850491</v>
+        <v>62.40815866666667</v>
       </c>
       <c r="H7">
-        <v>62.2564189850491</v>
+        <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="J7">
-        <v>0.3860043614836852</v>
+        <v>0.3628188257432201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.88987459594743</v>
+        <v>2.911831333333334</v>
       </c>
       <c r="N7">
-        <v>2.88987459594743</v>
+        <v>8.735494000000001</v>
       </c>
       <c r="O7">
-        <v>0.2255280633614028</v>
+        <v>0.2068161713476531</v>
       </c>
       <c r="P7">
-        <v>0.2255280633614028</v>
+        <v>0.206816171347653</v>
       </c>
       <c r="Q7">
-        <v>179.9132436595527</v>
+        <v>181.7220318612383</v>
       </c>
       <c r="R7">
-        <v>179.9132436595527</v>
+        <v>1635.498286751144</v>
       </c>
       <c r="S7">
-        <v>0.08705481609447038</v>
+        <v>0.07503680043306409</v>
       </c>
       <c r="T7">
-        <v>0.08705481609447038</v>
+        <v>0.07503680043306407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H8">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I8">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J8">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.38591901855633</v>
+        <v>4.465868666666666</v>
       </c>
       <c r="N8">
-        <v>3.38591901855633</v>
+        <v>13.397606</v>
       </c>
       <c r="O8">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136183</v>
       </c>
       <c r="P8">
-        <v>0.2642397562940624</v>
+        <v>0.3171934613136182</v>
       </c>
       <c r="Q8">
-        <v>107.0262692246876</v>
+        <v>142.7461701031722</v>
       </c>
       <c r="R8">
-        <v>107.0262692246876</v>
+        <v>1284.71553092855</v>
       </c>
       <c r="S8">
-        <v>0.05178691682232783</v>
+        <v>0.05894285777519243</v>
       </c>
       <c r="T8">
-        <v>0.05178691682232783</v>
+        <v>0.05894285777519241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H9">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I9">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J9">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.53802012058109</v>
+        <v>6.701621333333333</v>
       </c>
       <c r="N9">
-        <v>6.53802012058109</v>
+        <v>20.104864</v>
       </c>
       <c r="O9">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="P9">
-        <v>0.5102321803445349</v>
+        <v>0.4759903673387287</v>
       </c>
       <c r="Q9">
-        <v>206.6617357907418</v>
+        <v>214.2093398212444</v>
       </c>
       <c r="R9">
-        <v>206.6617357907418</v>
+        <v>1927.8840583912</v>
       </c>
       <c r="S9">
-        <v>0.0999976379563863</v>
+        <v>0.08845148449219856</v>
       </c>
       <c r="T9">
-        <v>0.0999976379563863</v>
+        <v>0.08845148449219853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.6092229725922</v>
+        <v>31.96380833333333</v>
       </c>
       <c r="H10">
-        <v>31.6092229725922</v>
+        <v>95.891425</v>
       </c>
       <c r="I10">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="J10">
-        <v>0.1959845768427675</v>
+        <v>0.1858262069182881</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.88987459594743</v>
+        <v>2.911831333333334</v>
       </c>
       <c r="N10">
-        <v>2.88987459594743</v>
+        <v>8.735494000000001</v>
       </c>
       <c r="O10">
-        <v>0.2255280633614028</v>
+        <v>0.2068161713476531</v>
       </c>
       <c r="P10">
-        <v>0.2255280633614028</v>
+        <v>0.206816171347653</v>
       </c>
       <c r="Q10">
-        <v>91.3466904661321</v>
+        <v>93.07321863766111</v>
       </c>
       <c r="R10">
-        <v>91.3466904661321</v>
+        <v>837.6589677389501</v>
       </c>
       <c r="S10">
-        <v>0.04420002206405339</v>
+        <v>0.0384318646508971</v>
       </c>
       <c r="T10">
-        <v>0.04420002206405339</v>
+        <v>0.03843186465089708</v>
       </c>
     </row>
   </sheetData>
